--- a/published-data/fonds-solidarite/fds-2020-12-24/fonds-solidarite-volet-1-departemental-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-24/fonds-solidarite-volet-1-departemental-naf.xlsx
@@ -60886,10 +60886,10 @@
         </is>
       </c>
       <c r="C1262" t="n">
-        <v>5831</v>
+        <v>5832</v>
       </c>
       <c r="D1262" t="n">
-        <v>13894460</v>
+        <v>13898676</v>
       </c>
       <c r="E1262" t="inlineStr">
         <is>
